--- a/ROSATOM/final/conduit.xlsx
+++ b/ROSATOM/final/conduit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Федор\Documents\GIT\atomasha\ROSATOM\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9503065-949A-4C6E-BDF3-6A717E2D12C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5841C57A-6C79-40BC-9E75-BD91E94DEC80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,22 +469,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -492,19 +492,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -532,19 +532,19 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -552,19 +552,19 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -572,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -592,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -632,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -692,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -812,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -832,19 +832,19 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -852,19 +852,19 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -872,19 +872,19 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -998,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1058,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
